--- a/kinship/data/kinship_terms/kinship_terms_summary.xlsx
+++ b/kinship/data/kinship_terms/kinship_terms_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3mliu\Documents\kinship\data\kinship_terms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3mliu\Documents\uid-rig\kinship\data\kinship_terms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7249083-7ED5-4452-B4B0-B9B072EC76C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AF388B-3331-45BC-BABC-3D6BC1A0A8B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21636" windowHeight="5664" xr2:uid="{843C6FE8-3F7F-47AA-A59E-F9A080007E3F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{843C6FE8-3F7F-47AA-A59E-F9A080007E3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="438">
   <si>
     <t>lang</t>
   </si>
@@ -1214,9 +1217,6 @@
     <t>Quechuan</t>
   </si>
   <si>
-    <t>nulls</t>
-  </si>
-  <si>
     <t>Kra-Dai</t>
   </si>
   <si>
@@ -1284,6 +1284,69 @@
   </si>
   <si>
     <t>TOTALS</t>
+  </si>
+  <si>
+    <t>subfamily</t>
+  </si>
+  <si>
+    <t>Germanic</t>
+  </si>
+  <si>
+    <t>Balto-Slavic</t>
+  </si>
+  <si>
+    <t>Celtic</t>
+  </si>
+  <si>
+    <t>Italic</t>
+  </si>
+  <si>
+    <t>Finnic</t>
+  </si>
+  <si>
+    <t>Volta-Congo</t>
+  </si>
+  <si>
+    <t>Karto-Zan</t>
+  </si>
+  <si>
+    <t>Chadic</t>
+  </si>
+  <si>
+    <t>Semitic</t>
+  </si>
+  <si>
+    <t>Indo-Iranian</t>
+  </si>
+  <si>
+    <t>Malayo-Polynesian</t>
+  </si>
+  <si>
+    <t>Atlantic</t>
+  </si>
+  <si>
+    <t>Southern Dravidian</t>
+  </si>
+  <si>
+    <t>Common Turkic</t>
+  </si>
+  <si>
+    <t>Sinitic</t>
+  </si>
+  <si>
+    <t>Yuman</t>
+  </si>
+  <si>
+    <t>Atlantic-Congo</t>
+  </si>
+  <si>
+    <t>South-Central Dravidian</t>
+  </si>
+  <si>
+    <t>Tai</t>
+  </si>
+  <si>
+    <t>Vietic</t>
   </si>
 </sst>
 </file>
@@ -1636,10 +1699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F902A3-A683-4DD8-BB18-F6C2C2B7ED16}">
-  <dimension ref="A1:I377"/>
+  <dimension ref="A1:J377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A348" zoomScale="76" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="H378" sqref="H378"/>
+    <sheetView tabSelected="1" topLeftCell="A327" zoomScale="76" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="H346" sqref="H346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1655,7 +1718,7 @@
     <col min="9" max="9" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1663,164 +1726,170 @@
         <v>36</v>
       </c>
       <c r="C1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
       <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>145</v>
       </c>
       <c r="B2" t="s">
         <v>382</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>146</v>
       </c>
       <c r="B3" t="s">
         <v>131</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>147</v>
       </c>
       <c r="B4" t="s">
         <v>382</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>148</v>
       </c>
       <c r="B5" t="s">
         <v>117</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
+      <c r="C5" t="s">
+        <v>418</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
       <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
       <c r="G5" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>116</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
+      <c r="D6">
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>149</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>150</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>151</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>152</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>117</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>153</v>
       </c>
       <c r="B12" t="s">
         <v>117</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
+      <c r="C12" t="s">
+        <v>418</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
         <v>7</v>
@@ -1831,78 +1900,81 @@
       <c r="H12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>154</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>155</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>156</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>118</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>157</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
       <c r="B19" t="s">
         <v>117</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
       <c r="B20" t="s">
         <v>117</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>7</v>
+      <c r="C20" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
@@ -1911,121 +1983,124 @@
         <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>158</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>159</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>160</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>161</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>14</v>
       </c>
       <c r="B25" t="s">
         <v>117</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>162</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>163</v>
       </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>164</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>165</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>166</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>15</v>
       </c>
       <c r="B31" t="s">
         <v>119</v>
       </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>167</v>
       </c>
       <c r="B32" t="s">
         <v>383</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>23</v>
+      <c r="C32" t="s">
+        <v>387</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F32" t="s">
         <v>7</v>
@@ -2036,150 +2111,159 @@
       <c r="H32" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>16</v>
       </c>
       <c r="B33" t="s">
         <v>120</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>23</v>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" t="s">
         <v>8</v>
       </c>
-      <c r="G33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>16</v>
       </c>
       <c r="B34" t="s">
         <v>120</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>7</v>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F34" t="s">
         <v>8</v>
       </c>
       <c r="G34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>168</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>169</v>
       </c>
       <c r="B36" t="s">
         <v>117</v>
       </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" t="s">
-        <v>7</v>
+      <c r="C36" t="s">
+        <v>419</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
       </c>
       <c r="E36" t="s">
         <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H36" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>170</v>
       </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>397</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+        <v>396</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>171</v>
       </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>172</v>
       </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>173</v>
       </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>397</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>398</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>399</v>
       </c>
       <c r="B43" t="s">
         <v>384</v>
       </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43" t="s">
-        <v>23</v>
+      <c r="D43">
+        <v>1</v>
       </c>
       <c r="E43" t="s">
         <v>23</v>
@@ -2188,91 +2272,97 @@
         <v>23</v>
       </c>
       <c r="G43" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H43" t="s">
         <v>7</v>
       </c>
       <c r="I43" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="J43" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>174</v>
       </c>
       <c r="B44" t="s">
         <v>117</v>
       </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44" t="s">
-        <v>7</v>
+      <c r="D44">
+        <v>1</v>
       </c>
       <c r="E44" t="s">
         <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G44" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H44" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>400</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+        <v>399</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>17</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="C46" t="s">
+        <v>420</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
         <v>26</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>8</v>
       </c>
-      <c r="F46" t="s">
-        <v>7</v>
-      </c>
       <c r="G46" t="s">
         <v>7</v>
       </c>
-      <c r="I46" t="s">
+      <c r="H46" t="s">
+        <v>7</v>
+      </c>
+      <c r="J46" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>17</v>
       </c>
       <c r="B47" t="s">
         <v>117</v>
       </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="C47" t="s">
+        <v>420</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
         <v>8</v>
       </c>
-      <c r="E47" t="s">
-        <v>7</v>
-      </c>
       <c r="F47" t="s">
         <v>7</v>
       </c>
@@ -2282,86 +2372,92 @@
       <c r="H47" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>175</v>
       </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>18</v>
       </c>
       <c r="B49" t="s">
         <v>117</v>
       </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49" t="s">
-        <v>7</v>
+      <c r="C49" t="s">
+        <v>419</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
       </c>
       <c r="E49" t="s">
         <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G49" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H49" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="I49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>18</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="J50" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>176</v>
       </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>177</v>
       </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>19</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53" t="s">
-        <v>7</v>
+      <c r="C53" t="s">
+        <v>421</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F53" t="s">
         <v>8</v>
@@ -2370,239 +2466,245 @@
         <v>8</v>
       </c>
       <c r="H53" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="I53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>20</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>21</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="I55" t="s">
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="J55" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>178</v>
       </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>179</v>
       </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>401</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>22</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>180</v>
       </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>27</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>181</v>
       </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>182</v>
       </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>183</v>
       </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>184</v>
       </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>28</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>185</v>
       </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>186</v>
       </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>29</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>187</v>
       </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>188</v>
       </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>189</v>
       </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>190</v>
       </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>191</v>
       </c>
       <c r="B74" t="s">
         <v>117</v>
       </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74" t="s">
-        <v>7</v>
+      <c r="C74" t="s">
+        <v>419</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
       </c>
       <c r="E74" t="s">
         <v>7</v>
       </c>
       <c r="F74" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G74" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H74" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>30</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>32</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76" t="s">
-        <v>23</v>
+      <c r="C76" t="s">
+        <v>418</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
       </c>
       <c r="E76" t="s">
         <v>23</v>
@@ -2613,38 +2715,41 @@
       <c r="G76" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H76" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>33</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>192</v>
       </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>34</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79" t="s">
-        <v>23</v>
+      <c r="C79" t="s">
+        <v>418</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
       </c>
       <c r="E79" t="s">
         <v>23</v>
@@ -2653,197 +2758,206 @@
         <v>23</v>
       </c>
       <c r="G79" t="s">
+        <v>23</v>
+      </c>
+      <c r="H79" t="s">
         <v>8</v>
       </c>
-      <c r="H79" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I79" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>193</v>
       </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>194</v>
       </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>402</v>
-      </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>195</v>
       </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>35</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>37</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>196</v>
       </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>38</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87" t="s">
-        <v>23</v>
+      <c r="C87" t="s">
+        <v>418</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
       </c>
       <c r="E87" t="s">
+        <v>23</v>
+      </c>
+      <c r="F87" t="s">
         <v>8</v>
       </c>
-      <c r="F87" t="s">
-        <v>23</v>
-      </c>
       <c r="G87" t="s">
         <v>23</v>
       </c>
       <c r="H87" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I87" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>39</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>40</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>40</v>
       </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>197</v>
       </c>
       <c r="B91" t="s">
         <v>384</v>
       </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91" t="s">
-        <v>7</v>
+      <c r="D91">
+        <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F91" t="s">
         <v>23</v>
       </c>
       <c r="G91" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H91" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="I91" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>41</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92" t="s">
-        <v>23</v>
+      <c r="C92" t="s">
+        <v>422</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F92" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G92" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H92" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>198</v>
       </c>
       <c r="B93" t="s">
         <v>385</v>
       </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="D93" t="s">
-        <v>23</v>
+      <c r="C93" t="s">
+        <v>423</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F93" t="s">
         <v>7</v>
@@ -2854,88 +2968,94 @@
       <c r="H93" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>199</v>
       </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>200</v>
       </c>
       <c r="B95" t="s">
         <v>117</v>
       </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-      <c r="D95" t="s">
-        <v>23</v>
+      <c r="C95" t="s">
+        <v>418</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
       </c>
       <c r="E95" t="s">
         <v>23</v>
       </c>
       <c r="F95" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G95" t="s">
         <v>7</v>
       </c>
       <c r="H95" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="I95" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>201</v>
       </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>202</v>
       </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>42</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>203</v>
       </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>43</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-      <c r="D100" t="s">
-        <v>23</v>
+      <c r="C100" t="s">
+        <v>421</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
       </c>
       <c r="E100" t="s">
         <v>23</v>
@@ -2944,70 +3064,73 @@
         <v>23</v>
       </c>
       <c r="G100" t="s">
+        <v>23</v>
+      </c>
+      <c r="H100" t="s">
         <v>8</v>
       </c>
-      <c r="H100" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I100" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>204</v>
       </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>205</v>
       </c>
-      <c r="C102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>206</v>
       </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>207</v>
       </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>208</v>
       </c>
-      <c r="C105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>209</v>
       </c>
       <c r="B106" t="s">
         <v>388</v>
       </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-      <c r="D106" t="s">
-        <v>7</v>
+      <c r="C106" t="s">
+        <v>424</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F106" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G106" t="s">
         <v>7</v>
@@ -3015,19 +3138,22 @@
       <c r="H106" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>44</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C107">
-        <v>1</v>
-      </c>
-      <c r="D107" t="s">
-        <v>23</v>
+      <c r="C107" t="s">
+        <v>418</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
       </c>
       <c r="E107" t="s">
         <v>23</v>
@@ -3036,243 +3162,255 @@
         <v>23</v>
       </c>
       <c r="G107" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H107" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="I107" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>210</v>
       </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>45</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>211</v>
       </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>46</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>46</v>
       </c>
-      <c r="C112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>212</v>
       </c>
-      <c r="C113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>213</v>
       </c>
-      <c r="C114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>214</v>
       </c>
-      <c r="C115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>215</v>
       </c>
-      <c r="C116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>216</v>
       </c>
-      <c r="C117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>47</v>
       </c>
       <c r="B118" t="s">
         <v>130</v>
       </c>
-      <c r="C118">
-        <v>1</v>
-      </c>
-      <c r="D118" t="s">
-        <v>7</v>
+      <c r="C118" t="s">
+        <v>425</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
       </c>
       <c r="E118" t="s">
         <v>7</v>
       </c>
       <c r="F118" t="s">
+        <v>7</v>
+      </c>
+      <c r="G118" t="s">
         <v>8</v>
       </c>
-      <c r="G118" t="s">
-        <v>7</v>
-      </c>
       <c r="H118" t="s">
+        <v>7</v>
+      </c>
+      <c r="I118" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>47</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>48</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>48</v>
       </c>
-      <c r="C121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B122" t="s">
         <v>130</v>
       </c>
-      <c r="C122">
-        <v>1</v>
-      </c>
-      <c r="D122" t="s">
-        <v>7</v>
+      <c r="C122" t="s">
+        <v>426</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
       </c>
       <c r="E122" t="s">
         <v>7</v>
       </c>
       <c r="F122" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G122" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H122" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="I122" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="J122" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>217</v>
       </c>
-      <c r="C123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>218</v>
       </c>
       <c r="B124" t="s">
         <v>117</v>
       </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-      <c r="D124" t="s">
-        <v>7</v>
+      <c r="C124" t="s">
+        <v>427</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
       </c>
       <c r="E124" t="s">
         <v>7</v>
       </c>
       <c r="F124" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G124" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H124" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="I124" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>49</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>50</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C126">
-        <v>1</v>
-      </c>
-      <c r="D126" t="s">
-        <v>23</v>
+      <c r="C126" t="s">
+        <v>50</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
       </c>
       <c r="E126" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F126" t="s">
         <v>7</v>
@@ -3283,45 +3421,48 @@
       <c r="H126" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I126" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>219</v>
       </c>
       <c r="B127" t="s">
         <v>117</v>
       </c>
-      <c r="C127">
-        <v>1</v>
-      </c>
-      <c r="D127" t="s">
-        <v>7</v>
+      <c r="C127" t="s">
+        <v>418</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
       </c>
       <c r="E127" t="s">
+        <v>7</v>
+      </c>
+      <c r="F127" t="s">
         <v>8</v>
       </c>
-      <c r="F127" t="s">
-        <v>23</v>
-      </c>
       <c r="G127" t="s">
         <v>23</v>
       </c>
       <c r="H127" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I127" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>220</v>
       </c>
       <c r="B128" t="s">
         <v>384</v>
       </c>
-      <c r="C128">
-        <v>1</v>
-      </c>
-      <c r="D128" t="s">
-        <v>7</v>
+      <c r="D128">
+        <v>1</v>
       </c>
       <c r="E128" t="s">
         <v>7</v>
@@ -3330,51 +3471,54 @@
         <v>7</v>
       </c>
       <c r="G128" t="s">
+        <v>7</v>
+      </c>
+      <c r="H128" t="s">
         <v>8</v>
       </c>
-      <c r="H128" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I128" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>221</v>
       </c>
-      <c r="C129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>51</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>222</v>
       </c>
-      <c r="C131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>223</v>
       </c>
       <c r="B132" t="s">
         <v>131</v>
       </c>
-      <c r="C132">
-        <v>1</v>
-      </c>
-      <c r="D132" t="s">
-        <v>7</v>
+      <c r="C132" t="s">
+        <v>428</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
       </c>
       <c r="E132" t="s">
         <v>7</v>
@@ -3386,24 +3530,24 @@
         <v>7</v>
       </c>
       <c r="H132" t="s">
+        <v>7</v>
+      </c>
+      <c r="I132" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>224</v>
       </c>
       <c r="B133" t="s">
         <v>384</v>
       </c>
-      <c r="C133">
-        <v>1</v>
-      </c>
-      <c r="D133" t="s">
-        <v>23</v>
+      <c r="D133">
+        <v>1</v>
       </c>
       <c r="E133" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F133" t="s">
         <v>7</v>
@@ -3414,46 +3558,49 @@
       <c r="H133" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I133" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>225</v>
       </c>
-      <c r="C134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>226</v>
       </c>
-      <c r="C135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>227</v>
       </c>
-      <c r="C136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>52</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C137">
-        <v>1</v>
-      </c>
-      <c r="D137" t="s">
-        <v>23</v>
+      <c r="C137" t="s">
+        <v>420</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
       </c>
       <c r="E137" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F137" t="s">
         <v>7</v>
@@ -3464,48 +3611,54 @@
       <c r="H137" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I137" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>53</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C138">
-        <v>1</v>
-      </c>
-      <c r="D138" t="s">
-        <v>7</v>
+      <c r="C138" t="s">
+        <v>421</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
       </c>
       <c r="E138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F138" t="s">
         <v>8</v>
       </c>
       <c r="G138" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H138" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I138" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>54</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C139">
-        <v>1</v>
-      </c>
-      <c r="D139" t="s">
-        <v>23</v>
+      <c r="C139" t="s">
+        <v>429</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
       </c>
       <c r="E139" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F139" t="s">
         <v>7</v>
@@ -3516,106 +3669,115 @@
       <c r="H139" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I139" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>228</v>
       </c>
       <c r="B140" t="s">
         <v>390</v>
       </c>
-      <c r="C140">
-        <v>1</v>
-      </c>
-      <c r="D140" t="s">
-        <v>23</v>
+      <c r="C140" t="s">
+        <v>228</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
       </c>
       <c r="E140" t="s">
         <v>23</v>
       </c>
       <c r="F140" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G140" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="H140" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I140" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>229</v>
       </c>
       <c r="B141" t="s">
         <v>131</v>
       </c>
-      <c r="C141">
-        <v>1</v>
-      </c>
-      <c r="D141" t="s">
-        <v>7</v>
+      <c r="C141" t="s">
+        <v>428</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
       </c>
       <c r="E141" t="s">
+        <v>7</v>
+      </c>
+      <c r="F141" t="s">
         <v>8</v>
       </c>
-      <c r="F141" t="s">
-        <v>7</v>
-      </c>
       <c r="G141" t="s">
         <v>7</v>
       </c>
       <c r="H141" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I141" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>230</v>
       </c>
-      <c r="C142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>404</v>
-      </c>
-      <c r="C143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>231</v>
       </c>
-      <c r="C144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>232</v>
       </c>
-      <c r="C145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>233</v>
       </c>
       <c r="B146" t="s">
         <v>389</v>
       </c>
-      <c r="C146">
-        <v>1</v>
-      </c>
-      <c r="D146" t="s">
-        <v>23</v>
+      <c r="C146" t="s">
+        <v>430</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
       </c>
       <c r="E146" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F146" t="s">
         <v>7</v>
@@ -3626,59 +3788,62 @@
       <c r="H146" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I146" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>234</v>
       </c>
-      <c r="C147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>235</v>
       </c>
-      <c r="C148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>236</v>
       </c>
-      <c r="C149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>237</v>
       </c>
-      <c r="C150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>238</v>
       </c>
-      <c r="C151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>239</v>
       </c>
       <c r="B152" t="s">
         <v>387</v>
       </c>
-      <c r="C152">
-        <v>1</v>
-      </c>
-      <c r="D152" t="s">
-        <v>7</v>
+      <c r="C152" t="s">
+        <v>431</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
       </c>
       <c r="E152" t="s">
         <v>7</v>
@@ -3690,32 +3855,35 @@
         <v>7</v>
       </c>
       <c r="H152" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="I152" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>55</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>240</v>
       </c>
       <c r="B154" t="s">
         <v>386</v>
       </c>
-      <c r="C154">
-        <v>1</v>
-      </c>
-      <c r="D154" t="s">
-        <v>7</v>
+      <c r="C154" t="s">
+        <v>240</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
       </c>
       <c r="E154" t="s">
         <v>7</v>
@@ -3727,40 +3895,43 @@
         <v>7</v>
       </c>
       <c r="H154" t="s">
+        <v>7</v>
+      </c>
+      <c r="I154" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>241</v>
       </c>
-      <c r="C155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>242</v>
       </c>
-      <c r="C156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>243</v>
       </c>
       <c r="B157" t="s">
         <v>387</v>
       </c>
-      <c r="C157">
-        <v>1</v>
-      </c>
-      <c r="D157" t="s">
-        <v>23</v>
+      <c r="C157" t="s">
+        <v>431</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
       </c>
       <c r="E157" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F157" t="s">
         <v>7</v>
@@ -3769,146 +3940,152 @@
         <v>7</v>
       </c>
       <c r="H157" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="I157" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>244</v>
       </c>
-      <c r="C158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>56</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>56</v>
       </c>
-      <c r="C160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>245</v>
       </c>
-      <c r="C161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>246</v>
       </c>
-      <c r="C162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>247</v>
       </c>
-      <c r="C163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>248</v>
       </c>
-      <c r="C164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>405</v>
-      </c>
-      <c r="C165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>249</v>
       </c>
-      <c r="C166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>250</v>
       </c>
-      <c r="C167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>251</v>
       </c>
-      <c r="C168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>252</v>
       </c>
-      <c r="C169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>57</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C170">
-        <v>1</v>
-      </c>
-      <c r="D170" t="s">
-        <v>7</v>
+      <c r="C170" t="s">
+        <v>421</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
       </c>
       <c r="E170" t="s">
         <v>7</v>
       </c>
       <c r="F170" t="s">
+        <v>7</v>
+      </c>
+      <c r="G170" t="s">
         <v>8</v>
       </c>
-      <c r="G170" t="s">
-        <v>23</v>
-      </c>
       <c r="H170" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I170" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>58</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C171">
-        <v>1</v>
-      </c>
-      <c r="D171" t="s">
-        <v>23</v>
+      <c r="C171" t="s">
+        <v>419</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
       </c>
       <c r="E171" t="s">
         <v>7</v>
@@ -3922,168 +4099,177 @@
       <c r="H171" t="s">
         <v>7</v>
       </c>
-      <c r="I171">
-        <f>COUNTIF(G152:G250, "b-k")</f>
+      <c r="I171" t="s">
+        <v>7</v>
+      </c>
+      <c r="J171">
+        <f>COUNTIF(H152:H250, "b-k")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>58</v>
       </c>
       <c r="B172" t="s">
         <v>117</v>
       </c>
-      <c r="C172">
-        <v>1</v>
-      </c>
-      <c r="D172" t="s">
-        <v>23</v>
+      <c r="C172" t="s">
+        <v>419</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
       </c>
       <c r="E172" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F172" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G172" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H172" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="I172" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>253</v>
       </c>
-      <c r="C173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>254</v>
       </c>
-      <c r="C174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>255</v>
       </c>
-      <c r="C175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>256</v>
       </c>
-      <c r="C176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B177" t="s">
         <v>384</v>
       </c>
-      <c r="C177">
-        <v>1</v>
-      </c>
-      <c r="D177" t="s">
-        <v>7</v>
+      <c r="D177">
+        <v>1</v>
       </c>
       <c r="E177" t="s">
+        <v>7</v>
+      </c>
+      <c r="F177" t="s">
         <v>8</v>
       </c>
-      <c r="F177" t="s">
-        <v>7</v>
-      </c>
       <c r="G177" t="s">
         <v>7</v>
       </c>
       <c r="H177" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I177" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>257</v>
       </c>
       <c r="B178" t="s">
         <v>117</v>
       </c>
-      <c r="C178">
-        <v>1</v>
-      </c>
-      <c r="D178" t="s">
-        <v>7</v>
+      <c r="C178" t="s">
+        <v>419</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
       </c>
       <c r="E178" t="s">
         <v>7</v>
       </c>
       <c r="F178" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G178" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H178" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I178" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>258</v>
       </c>
-      <c r="C179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>259</v>
       </c>
-      <c r="C180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>260</v>
       </c>
-      <c r="C181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>407</v>
-      </c>
-      <c r="C182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>261</v>
       </c>
       <c r="B183" t="s">
         <v>117</v>
       </c>
-      <c r="C183">
-        <v>1</v>
-      </c>
-      <c r="D183" t="s">
-        <v>23</v>
+      <c r="C183" t="s">
+        <v>418</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
       </c>
       <c r="E183" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F183" t="s">
         <v>7</v>
@@ -4094,25 +4280,28 @@
       <c r="H183" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I183" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>262</v>
       </c>
       <c r="B184" t="s">
         <v>117</v>
       </c>
-      <c r="C184">
-        <v>1</v>
-      </c>
-      <c r="D184" t="s">
-        <v>23</v>
+      <c r="C184" t="s">
+        <v>419</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
       </c>
       <c r="E184" t="s">
         <v>23</v>
       </c>
       <c r="F184" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G184" t="s">
         <v>7</v>
@@ -4120,30 +4309,33 @@
       <c r="H184" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I184" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>263</v>
       </c>
-      <c r="C185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>264</v>
       </c>
       <c r="B186" t="s">
         <v>117</v>
       </c>
-      <c r="C186">
-        <v>1</v>
-      </c>
-      <c r="D186" t="s">
-        <v>23</v>
+      <c r="C186" t="s">
+        <v>418</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
       </c>
       <c r="E186" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F186" t="s">
         <v>7</v>
@@ -4154,101 +4346,110 @@
       <c r="H186" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I186" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>265</v>
       </c>
       <c r="B187" t="s">
         <v>117</v>
       </c>
-      <c r="C187">
-        <v>1</v>
-      </c>
-      <c r="D187" t="s">
-        <v>7</v>
+      <c r="C187" t="s">
+        <v>419</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
       </c>
       <c r="E187" t="s">
         <v>7</v>
       </c>
       <c r="F187" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G187" t="s">
+        <v>23</v>
+      </c>
+      <c r="H187" t="s">
         <v>8</v>
       </c>
-      <c r="H187" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I187" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>59</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>266</v>
       </c>
-      <c r="C189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>267</v>
       </c>
-      <c r="C190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>268</v>
       </c>
       <c r="B191" t="s">
         <v>131</v>
       </c>
-      <c r="C191">
-        <v>1</v>
-      </c>
-      <c r="D191" t="s">
-        <v>7</v>
+      <c r="C191" t="s">
+        <v>428</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
       </c>
       <c r="E191" t="s">
+        <v>7</v>
+      </c>
+      <c r="F191" t="s">
         <v>8</v>
       </c>
-      <c r="F191" t="s">
-        <v>7</v>
-      </c>
       <c r="G191" t="s">
         <v>7</v>
       </c>
       <c r="H191" t="s">
+        <v>7</v>
+      </c>
+      <c r="I191" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>269</v>
       </c>
       <c r="B192" t="s">
         <v>389</v>
       </c>
-      <c r="C192">
-        <v>1</v>
-      </c>
-      <c r="D192" t="s">
-        <v>7</v>
+      <c r="C192" t="s">
+        <v>430</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
       </c>
       <c r="E192" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F192" t="s">
         <v>23</v>
@@ -4257,35 +4458,38 @@
         <v>23</v>
       </c>
       <c r="H192" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I192" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>408</v>
-      </c>
-      <c r="C193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>60</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C194">
-        <v>1</v>
-      </c>
-      <c r="D194" t="s">
-        <v>7</v>
+      <c r="C194" t="s">
+        <v>432</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
       </c>
       <c r="E194" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F194" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G194" t="s">
         <v>7</v>
@@ -4293,61 +4497,64 @@
       <c r="H194" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I194" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>61</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>270</v>
       </c>
-      <c r="C196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>271</v>
       </c>
       <c r="B197" t="s">
         <v>131</v>
       </c>
-      <c r="C197">
-        <v>1</v>
-      </c>
-      <c r="D197" t="s">
-        <v>7</v>
+      <c r="C197" t="s">
+        <v>428</v>
+      </c>
+      <c r="D197">
+        <v>1</v>
       </c>
       <c r="E197" t="s">
+        <v>7</v>
+      </c>
+      <c r="F197" t="s">
         <v>8</v>
       </c>
-      <c r="F197" t="s">
-        <v>7</v>
-      </c>
       <c r="G197" t="s">
         <v>7</v>
       </c>
       <c r="H197" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I197" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>272</v>
       </c>
-      <c r="C198">
-        <v>0</v>
-      </c>
-      <c r="D198" t="s">
-        <v>7</v>
+      <c r="D198">
+        <v>0</v>
       </c>
       <c r="E198" t="s">
         <v>7</v>
@@ -4361,426 +4568,438 @@
       <c r="H198" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I198" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>62</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>63</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>273</v>
       </c>
-      <c r="C201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>274</v>
       </c>
-      <c r="C202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>64</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C203">
-        <v>1</v>
-      </c>
-      <c r="D203" t="s">
-        <v>23</v>
+      <c r="C203" t="s">
+        <v>418</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
       </c>
       <c r="E203" t="s">
+        <v>23</v>
+      </c>
+      <c r="F203" t="s">
         <v>8</v>
       </c>
-      <c r="F203" t="s">
-        <v>23</v>
-      </c>
       <c r="G203" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H203" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="I203" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>65</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C204">
-        <v>1</v>
-      </c>
-      <c r="D204" t="s">
-        <v>23</v>
+      <c r="C204" t="s">
+        <v>418</v>
+      </c>
+      <c r="D204">
+        <v>1</v>
       </c>
       <c r="E204" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F204" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G204" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H204" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="I204" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>275</v>
       </c>
-      <c r="C205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>276</v>
       </c>
-      <c r="C206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>277</v>
       </c>
-      <c r="C207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>278</v>
       </c>
-      <c r="C208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>279</v>
       </c>
-      <c r="C209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>66</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>280</v>
       </c>
-      <c r="C211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>281</v>
       </c>
-      <c r="C212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>282</v>
       </c>
       <c r="B213" t="s">
         <v>392</v>
       </c>
-      <c r="C213">
-        <v>1</v>
-      </c>
-      <c r="D213" t="s">
-        <v>7</v>
+      <c r="C213" t="s">
+        <v>282</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
       </c>
       <c r="E213" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F213" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G213" t="s">
         <v>7</v>
       </c>
       <c r="H213" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="I213" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>67</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>68</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>69</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>69</v>
       </c>
-      <c r="C217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>283</v>
       </c>
-      <c r="C218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>284</v>
       </c>
-      <c r="C219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>285</v>
       </c>
-      <c r="C220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>70</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>71</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>286</v>
       </c>
-      <c r="C223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>287</v>
       </c>
-      <c r="C224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>72</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>288</v>
       </c>
-      <c r="C226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>289</v>
       </c>
-      <c r="C227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>290</v>
       </c>
-      <c r="C228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>73</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>291</v>
       </c>
-      <c r="C230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>74</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>292</v>
       </c>
-      <c r="C232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>293</v>
       </c>
-      <c r="C233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>294</v>
       </c>
       <c r="B234" t="s">
         <v>117</v>
       </c>
-      <c r="C234">
-        <v>1</v>
-      </c>
-      <c r="D234" t="s">
-        <v>7</v>
+      <c r="C234" t="s">
+        <v>418</v>
+      </c>
+      <c r="D234">
+        <v>1</v>
       </c>
       <c r="E234" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F234" t="s">
         <v>23</v>
       </c>
       <c r="G234" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H234" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="I234" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>295</v>
       </c>
-      <c r="C235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B236" t="s">
         <v>384</v>
       </c>
-      <c r="C236">
-        <v>1</v>
-      </c>
-      <c r="D236" t="s">
-        <v>23</v>
+      <c r="D236">
+        <v>1</v>
       </c>
       <c r="E236" t="s">
         <v>23</v>
       </c>
       <c r="F236" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G236" t="s">
         <v>7</v>
@@ -4789,92 +5008,101 @@
         <v>7</v>
       </c>
       <c r="I236" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="J236" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>296</v>
       </c>
-      <c r="C237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B238" t="s">
         <v>117</v>
       </c>
-      <c r="C238">
-        <v>1</v>
-      </c>
-      <c r="D238" t="s">
-        <v>7</v>
+      <c r="C238" t="s">
+        <v>427</v>
+      </c>
+      <c r="D238">
+        <v>1</v>
       </c>
       <c r="E238" t="s">
         <v>7</v>
       </c>
       <c r="F238" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G238" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H238" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I238" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>75</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>76</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C240">
-        <v>1</v>
-      </c>
-      <c r="D240" t="s">
+      <c r="C240" t="s">
+        <v>418</v>
+      </c>
+      <c r="D240">
+        <v>1</v>
+      </c>
+      <c r="E240" t="s">
         <v>8</v>
       </c>
-      <c r="E240" t="s">
-        <v>7</v>
-      </c>
       <c r="F240" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G240" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H240" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I240" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>77</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C241">
-        <v>1</v>
-      </c>
-      <c r="D241" t="s">
-        <v>7</v>
+      <c r="C241" t="s">
+        <v>418</v>
+      </c>
+      <c r="D241">
+        <v>1</v>
       </c>
       <c r="E241" t="s">
         <v>7</v>
@@ -4886,21 +5114,24 @@
         <v>7</v>
       </c>
       <c r="H241" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="I241" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>78</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C242">
-        <v>1</v>
-      </c>
-      <c r="D242" t="s">
-        <v>7</v>
+      <c r="C242" t="s">
+        <v>420</v>
+      </c>
+      <c r="D242">
+        <v>1</v>
       </c>
       <c r="E242" t="s">
         <v>7</v>
@@ -4909,148 +5140,151 @@
         <v>7</v>
       </c>
       <c r="G242" t="s">
+        <v>7</v>
+      </c>
+      <c r="H242" t="s">
         <v>8</v>
       </c>
-      <c r="H242" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I242" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>79</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>80</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>297</v>
       </c>
-      <c r="C245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>298</v>
       </c>
-      <c r="C246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>299</v>
       </c>
-      <c r="C247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>81</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>300</v>
       </c>
-      <c r="C249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>301</v>
       </c>
-      <c r="C250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>82</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>302</v>
       </c>
-      <c r="C252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>303</v>
       </c>
-      <c r="C253">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>304</v>
       </c>
-      <c r="C254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>305</v>
       </c>
-      <c r="C255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>306</v>
       </c>
-      <c r="C256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>83</v>
       </c>
       <c r="B257" t="s">
         <v>117</v>
       </c>
-      <c r="C257">
-        <v>1</v>
-      </c>
-      <c r="D257" t="s">
-        <v>23</v>
+      <c r="C257" t="s">
+        <v>427</v>
+      </c>
+      <c r="D257">
+        <v>1</v>
       </c>
       <c r="E257" t="s">
         <v>23</v>
@@ -5059,115 +5293,121 @@
         <v>23</v>
       </c>
       <c r="G257" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H257" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="I257" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>83</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>307</v>
       </c>
-      <c r="C259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>308</v>
       </c>
-      <c r="C260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>84</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C261">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>85</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C262">
-        <v>1</v>
-      </c>
-      <c r="D262" t="s">
-        <v>7</v>
+      <c r="C262" t="s">
+        <v>419</v>
+      </c>
+      <c r="D262">
+        <v>1</v>
       </c>
       <c r="E262" t="s">
         <v>7</v>
       </c>
       <c r="F262" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G262" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H262" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I262" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>309</v>
       </c>
-      <c r="C263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>86</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C264">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>88</v>
       </c>
-      <c r="C265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>310</v>
       </c>
       <c r="B266" t="s">
         <v>117</v>
       </c>
-      <c r="C266">
-        <v>1</v>
-      </c>
-      <c r="D266" t="s">
-        <v>7</v>
+      <c r="C266" t="s">
+        <v>427</v>
+      </c>
+      <c r="D266">
+        <v>1</v>
       </c>
       <c r="E266" t="s">
         <v>7</v>
@@ -5179,24 +5419,27 @@
         <v>7</v>
       </c>
       <c r="H266" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="I266" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>311</v>
       </c>
       <c r="B267" t="s">
+        <v>433</v>
+      </c>
+      <c r="C267" t="s">
         <v>393</v>
       </c>
-      <c r="C267">
-        <v>1</v>
-      </c>
-      <c r="D267" t="s">
-        <v>23</v>
+      <c r="D267">
+        <v>1</v>
       </c>
       <c r="E267" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F267" t="s">
         <v>7</v>
@@ -5207,41 +5450,44 @@
       <c r="H267" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I267" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>87</v>
       </c>
       <c r="B268" t="s">
         <v>131</v>
       </c>
-      <c r="C268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>312</v>
       </c>
-      <c r="C269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>89</v>
       </c>
       <c r="B270" t="s">
         <v>117</v>
       </c>
-      <c r="C270">
-        <v>1</v>
-      </c>
-      <c r="D270" t="s">
-        <v>23</v>
+      <c r="C270" t="s">
+        <v>427</v>
+      </c>
+      <c r="D270">
+        <v>1</v>
       </c>
       <c r="E270" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F270" t="s">
         <v>7</v>
@@ -5252,27 +5498,30 @@
       <c r="H270" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I270" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>89</v>
       </c>
-      <c r="C271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>90</v>
       </c>
       <c r="B272" t="s">
         <v>117</v>
       </c>
-      <c r="C272">
-        <v>1</v>
-      </c>
-      <c r="D272" t="s">
-        <v>7</v>
+      <c r="C272" t="s">
+        <v>421</v>
+      </c>
+      <c r="D272">
+        <v>1</v>
       </c>
       <c r="E272" t="s">
         <v>7</v>
@@ -5284,121 +5533,124 @@
         <v>7</v>
       </c>
       <c r="H272" t="s">
+        <v>7</v>
+      </c>
+      <c r="I272" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>313</v>
       </c>
-      <c r="C273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>91</v>
       </c>
       <c r="B274" t="s">
         <v>117</v>
       </c>
-      <c r="C274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>314</v>
       </c>
-      <c r="C275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>315</v>
       </c>
-      <c r="C276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>316</v>
       </c>
-      <c r="C277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>317</v>
       </c>
-      <c r="C278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>318</v>
       </c>
-      <c r="C279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>92</v>
       </c>
       <c r="B280" t="s">
         <v>117</v>
       </c>
-      <c r="C280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>92</v>
       </c>
-      <c r="C281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>319</v>
       </c>
-      <c r="C282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>320</v>
       </c>
-      <c r="C283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>321</v>
       </c>
       <c r="B284" t="s">
         <v>117</v>
       </c>
-      <c r="C284">
-        <v>1</v>
-      </c>
-      <c r="D284" t="s">
-        <v>23</v>
+      <c r="C284" t="s">
+        <v>418</v>
+      </c>
+      <c r="D284">
+        <v>1</v>
       </c>
       <c r="E284" t="s">
         <v>23</v>
       </c>
       <c r="F284" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G284" t="s">
         <v>7</v>
@@ -5406,380 +5658,410 @@
       <c r="H284" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I284" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>322</v>
       </c>
       <c r="B285" t="s">
         <v>117</v>
       </c>
-      <c r="C285">
-        <v>1</v>
-      </c>
-      <c r="D285" t="s">
-        <v>7</v>
+      <c r="C285" t="s">
+        <v>420</v>
+      </c>
+      <c r="D285">
+        <v>1</v>
       </c>
       <c r="E285" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F285" t="s">
         <v>8</v>
       </c>
       <c r="G285" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H285" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="I285" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>93</v>
       </c>
       <c r="B286" t="s">
         <v>128</v>
       </c>
-      <c r="C286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>323</v>
       </c>
       <c r="B287" t="s">
         <v>117</v>
       </c>
-      <c r="C287">
-        <v>1</v>
-      </c>
-      <c r="D287" t="s">
-        <v>7</v>
+      <c r="C287" t="s">
+        <v>419</v>
+      </c>
+      <c r="D287">
+        <v>1</v>
       </c>
       <c r="E287" t="s">
         <v>7</v>
       </c>
       <c r="F287" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G287" t="s">
         <v>23</v>
       </c>
       <c r="H287" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I287" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>94</v>
       </c>
       <c r="B288" t="s">
         <v>117</v>
       </c>
-      <c r="C288">
-        <v>1</v>
-      </c>
-      <c r="D288" t="s">
-        <v>7</v>
+      <c r="C288" t="s">
+        <v>419</v>
+      </c>
+      <c r="D288">
+        <v>1</v>
       </c>
       <c r="E288" t="s">
         <v>7</v>
       </c>
       <c r="F288" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G288" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H288" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I288" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>94</v>
       </c>
       <c r="B289" t="s">
         <v>117</v>
       </c>
-      <c r="C289">
-        <v>1</v>
-      </c>
-      <c r="D289" t="s">
-        <v>23</v>
+      <c r="C289" t="s">
+        <v>419</v>
+      </c>
+      <c r="D289">
+        <v>1</v>
       </c>
       <c r="E289" t="s">
+        <v>23</v>
+      </c>
+      <c r="F289" t="s">
         <v>8</v>
       </c>
-      <c r="F289" t="s">
-        <v>7</v>
-      </c>
       <c r="G289" t="s">
         <v>7</v>
       </c>
       <c r="H289" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="I289" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>95</v>
       </c>
       <c r="B290" t="s">
         <v>140</v>
       </c>
-      <c r="C290">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>324</v>
       </c>
-      <c r="C291">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>96</v>
       </c>
       <c r="B292" t="s">
         <v>123</v>
       </c>
-      <c r="C292">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>325</v>
       </c>
-      <c r="C293">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>326</v>
       </c>
-      <c r="C294">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>327</v>
       </c>
-      <c r="C295">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>328</v>
       </c>
       <c r="B296" t="s">
         <v>117</v>
       </c>
-      <c r="C296">
-        <v>1</v>
-      </c>
-      <c r="D296" t="s">
-        <v>7</v>
+      <c r="C296" t="s">
+        <v>427</v>
+      </c>
+      <c r="D296">
+        <v>1</v>
       </c>
       <c r="E296" t="s">
         <v>7</v>
       </c>
       <c r="F296" t="s">
+        <v>7</v>
+      </c>
+      <c r="G296" t="s">
         <v>8</v>
       </c>
-      <c r="G296" t="s">
-        <v>7</v>
-      </c>
       <c r="H296" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I296" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>329</v>
       </c>
-      <c r="C297">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>330</v>
       </c>
       <c r="B298" t="s">
         <v>117</v>
       </c>
-      <c r="C298">
-        <v>1</v>
-      </c>
-      <c r="D298" t="s">
-        <v>7</v>
+      <c r="C298" t="s">
+        <v>419</v>
+      </c>
+      <c r="D298">
+        <v>1</v>
       </c>
       <c r="E298" t="s">
         <v>7</v>
       </c>
       <c r="F298" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G298" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H298" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="I298" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>331</v>
       </c>
       <c r="B299" t="s">
         <v>117</v>
       </c>
-      <c r="C299">
-        <v>1</v>
-      </c>
-      <c r="D299" t="s">
-        <v>7</v>
+      <c r="C299" t="s">
+        <v>419</v>
+      </c>
+      <c r="D299">
+        <v>1</v>
       </c>
       <c r="E299" t="s">
+        <v>7</v>
+      </c>
+      <c r="F299" t="s">
         <v>8</v>
       </c>
-      <c r="F299" t="s">
-        <v>23</v>
-      </c>
       <c r="G299" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H299" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="I299" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>332</v>
       </c>
-      <c r="C300">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>333</v>
       </c>
-      <c r="C301">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>334</v>
       </c>
-      <c r="C302">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>97</v>
       </c>
       <c r="B303" t="s">
         <v>117</v>
       </c>
-      <c r="C303">
-        <v>1</v>
-      </c>
-      <c r="D303" t="s">
-        <v>7</v>
+      <c r="C303" t="s">
+        <v>421</v>
+      </c>
+      <c r="D303">
+        <v>1</v>
       </c>
       <c r="E303" t="s">
         <v>7</v>
       </c>
       <c r="F303" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G303" t="s">
         <v>8</v>
       </c>
       <c r="H303" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="I303" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>335</v>
       </c>
-      <c r="C304">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>336</v>
       </c>
-      <c r="C305">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>337</v>
       </c>
       <c r="B306" t="s">
         <v>385</v>
       </c>
-      <c r="C306">
-        <v>1</v>
-      </c>
-      <c r="D306" t="s">
-        <v>7</v>
+      <c r="C306" t="s">
+        <v>434</v>
+      </c>
+      <c r="D306">
+        <v>1</v>
       </c>
       <c r="E306" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F306" t="s">
         <v>8</v>
       </c>
       <c r="G306" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H306" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I306" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>338</v>
       </c>
-      <c r="C307">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>98</v>
       </c>
       <c r="B308" t="s">
         <v>117</v>
       </c>
-      <c r="C308">
-        <v>1</v>
-      </c>
-      <c r="D308" t="s">
-        <v>7</v>
+      <c r="C308" t="s">
+        <v>418</v>
+      </c>
+      <c r="D308">
+        <v>1</v>
       </c>
       <c r="E308" t="s">
         <v>7</v>
       </c>
       <c r="F308" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G308" t="s">
         <v>23</v>
@@ -5787,22 +6069,25 @@
       <c r="H308" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I308" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B309" t="s">
         <v>117</v>
       </c>
-      <c r="C309">
-        <v>1</v>
-      </c>
-      <c r="D309" t="s">
-        <v>23</v>
+      <c r="C309" t="s">
+        <v>418</v>
+      </c>
+      <c r="D309">
+        <v>1</v>
       </c>
       <c r="E309" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F309" t="s">
         <v>7</v>
@@ -5813,114 +6098,123 @@
       <c r="H309" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I309" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>99</v>
       </c>
       <c r="B310" t="s">
         <v>141</v>
       </c>
-      <c r="C310">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>339</v>
       </c>
-      <c r="C311">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>340</v>
       </c>
-      <c r="C312">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>341</v>
       </c>
       <c r="B313" t="s">
         <v>117</v>
       </c>
-      <c r="C313">
-        <v>1</v>
-      </c>
-      <c r="D313" t="s">
-        <v>7</v>
+      <c r="C313" t="s">
+        <v>427</v>
+      </c>
+      <c r="D313">
+        <v>1</v>
       </c>
       <c r="E313" t="s">
         <v>7</v>
       </c>
       <c r="F313" t="s">
+        <v>7</v>
+      </c>
+      <c r="G313" t="s">
         <v>8</v>
       </c>
-      <c r="G313" t="s">
-        <v>7</v>
-      </c>
       <c r="H313" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I313" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>342</v>
       </c>
       <c r="B314" t="s">
         <v>389</v>
       </c>
-      <c r="C314">
-        <v>1</v>
-      </c>
-      <c r="D314" t="s">
-        <v>7</v>
+      <c r="C314" t="s">
+        <v>430</v>
+      </c>
+      <c r="D314">
+        <v>1</v>
       </c>
       <c r="E314" t="s">
         <v>7</v>
       </c>
       <c r="F314" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G314" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H314" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="I314" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>343</v>
       </c>
-      <c r="C315">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>344</v>
       </c>
-      <c r="C316">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>345</v>
       </c>
       <c r="B317" t="s">
         <v>389</v>
       </c>
-      <c r="C317">
-        <v>1</v>
-      </c>
-      <c r="D317" t="s">
-        <v>7</v>
+      <c r="C317" t="s">
+        <v>435</v>
+      </c>
+      <c r="D317">
+        <v>1</v>
       </c>
       <c r="E317" t="s">
         <v>7</v>
@@ -5932,29 +6226,32 @@
         <v>7</v>
       </c>
       <c r="H317" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="I317" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>346</v>
       </c>
-      <c r="C318">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>347</v>
       </c>
       <c r="B319" t="s">
-        <v>395</v>
-      </c>
-      <c r="C319">
-        <v>1</v>
-      </c>
-      <c r="D319" t="s">
-        <v>7</v>
+        <v>394</v>
+      </c>
+      <c r="C319" t="s">
+        <v>436</v>
+      </c>
+      <c r="D319">
+        <v>1</v>
       </c>
       <c r="E319" t="s">
         <v>7</v>
@@ -5966,265 +6263,274 @@
         <v>7</v>
       </c>
       <c r="H319" t="s">
+        <v>7</v>
+      </c>
+      <c r="I319" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>348</v>
       </c>
-      <c r="C320">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>349</v>
       </c>
-      <c r="C321">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>100</v>
       </c>
       <c r="B322" t="s">
         <v>142</v>
       </c>
-      <c r="C322">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>101</v>
       </c>
       <c r="B323" t="s">
         <v>117</v>
       </c>
-      <c r="C323">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>102</v>
       </c>
       <c r="B324" t="s">
         <v>117</v>
       </c>
-      <c r="C324">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>350</v>
       </c>
-      <c r="C325">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>103</v>
       </c>
       <c r="B326" t="s">
         <v>131</v>
       </c>
-      <c r="C326">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>103</v>
       </c>
-      <c r="C327">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>104</v>
       </c>
       <c r="B328" t="s">
         <v>129</v>
       </c>
-      <c r="C328">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>105</v>
       </c>
       <c r="B329" t="s">
         <v>120</v>
       </c>
-      <c r="C329">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>351</v>
       </c>
-      <c r="C330">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>352</v>
       </c>
-      <c r="C331">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>353</v>
       </c>
-      <c r="C332">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>354</v>
       </c>
-      <c r="C333">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>412</v>
-      </c>
-      <c r="C334">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+      <c r="D334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>355</v>
       </c>
       <c r="B335" t="s">
         <v>387</v>
       </c>
-      <c r="C335">
-        <v>1</v>
-      </c>
-      <c r="D335" t="s">
-        <v>7</v>
+      <c r="C335" t="s">
+        <v>431</v>
+      </c>
+      <c r="D335">
+        <v>1</v>
       </c>
       <c r="E335" t="s">
+        <v>7</v>
+      </c>
+      <c r="F335" t="s">
         <v>8</v>
       </c>
-      <c r="F335" t="s">
-        <v>7</v>
-      </c>
       <c r="G335" t="s">
         <v>7</v>
       </c>
       <c r="H335" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I335" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>356</v>
       </c>
-      <c r="C336">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>357</v>
       </c>
-      <c r="C337">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>106</v>
       </c>
       <c r="B338" t="s">
         <v>143</v>
       </c>
-      <c r="C338">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>358</v>
       </c>
-      <c r="C339">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>107</v>
       </c>
       <c r="B340" t="s">
         <v>128</v>
       </c>
-      <c r="C340">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>107</v>
       </c>
-      <c r="C341">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>359</v>
       </c>
       <c r="B342" t="s">
         <v>117</v>
       </c>
-      <c r="C342">
-        <v>1</v>
-      </c>
-      <c r="D342" t="s">
-        <v>7</v>
+      <c r="C342" t="s">
+        <v>419</v>
+      </c>
+      <c r="D342">
+        <v>1</v>
       </c>
       <c r="E342" t="s">
         <v>7</v>
       </c>
       <c r="F342" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G342" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H342" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I342" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>360</v>
       </c>
       <c r="B343" t="s">
         <v>117</v>
       </c>
-      <c r="C343">
-        <v>1</v>
-      </c>
-      <c r="D343" t="s">
-        <v>7</v>
+      <c r="C343" t="s">
+        <v>419</v>
+      </c>
+      <c r="D343">
+        <v>1</v>
       </c>
       <c r="E343" t="s">
         <v>7</v>
@@ -6236,160 +6542,172 @@
         <v>7</v>
       </c>
       <c r="H343" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="I343" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>361</v>
       </c>
       <c r="B344" t="s">
         <v>117</v>
       </c>
-      <c r="C344">
-        <v>1</v>
-      </c>
-      <c r="D344" t="s">
-        <v>7</v>
+      <c r="C344" t="s">
+        <v>427</v>
+      </c>
+      <c r="D344">
+        <v>1</v>
       </c>
       <c r="E344" t="s">
         <v>7</v>
       </c>
       <c r="F344" t="s">
+        <v>7</v>
+      </c>
+      <c r="G344" t="s">
         <v>8</v>
       </c>
-      <c r="G344" t="s">
-        <v>7</v>
-      </c>
       <c r="H344" t="s">
+        <v>7</v>
+      </c>
+      <c r="I344" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>362</v>
       </c>
-      <c r="C345">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B346" t="s">
         <v>387</v>
       </c>
-      <c r="C346">
-        <v>1</v>
-      </c>
-      <c r="D346" t="s">
-        <v>7</v>
+      <c r="C346" t="s">
+        <v>431</v>
+      </c>
+      <c r="D346">
+        <v>1</v>
       </c>
       <c r="E346" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="F346" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G346" t="s">
-        <v>394</v>
+        <v>7</v>
       </c>
       <c r="H346" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="I346" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>363</v>
       </c>
-      <c r="C347">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>364</v>
       </c>
-      <c r="C348">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>365</v>
       </c>
-      <c r="C349">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>366</v>
       </c>
       <c r="B350" t="s">
         <v>386</v>
       </c>
-      <c r="C350">
-        <v>1</v>
-      </c>
-      <c r="D350" t="s">
-        <v>7</v>
+      <c r="C350" t="s">
+        <v>437</v>
+      </c>
+      <c r="D350">
+        <v>1</v>
       </c>
       <c r="E350" t="s">
+        <v>7</v>
+      </c>
+      <c r="F350" t="s">
         <v>8</v>
       </c>
-      <c r="F350" t="s">
-        <v>7</v>
-      </c>
       <c r="G350" t="s">
         <v>7</v>
       </c>
       <c r="H350" t="s">
+        <v>7</v>
+      </c>
+      <c r="I350" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>367</v>
       </c>
       <c r="B351" t="s">
         <v>384</v>
       </c>
-      <c r="C351">
-        <v>1</v>
-      </c>
-      <c r="D351" t="s">
-        <v>23</v>
+      <c r="D351">
+        <v>1</v>
       </c>
       <c r="E351" t="s">
         <v>23</v>
       </c>
       <c r="F351" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G351" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="H351" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I351" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>368</v>
       </c>
       <c r="B352" t="s">
-        <v>385</v>
-      </c>
-      <c r="C352">
-        <v>1</v>
-      </c>
-      <c r="D352" t="s">
-        <v>23</v>
+        <v>128</v>
+      </c>
+      <c r="C352" t="s">
+        <v>422</v>
+      </c>
+      <c r="D352">
+        <v>1</v>
       </c>
       <c r="E352" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F352" t="s">
         <v>7</v>
@@ -6400,91 +6718,97 @@
       <c r="H352" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I352" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>108</v>
       </c>
       <c r="B353" t="s">
         <v>126</v>
       </c>
-      <c r="C353">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>369</v>
       </c>
-      <c r="C354">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>370</v>
       </c>
-      <c r="C355">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>109</v>
       </c>
       <c r="B356" t="s">
         <v>129</v>
       </c>
-      <c r="C356">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>110</v>
       </c>
       <c r="B357" t="s">
         <v>117</v>
       </c>
-      <c r="C357">
-        <v>1</v>
-      </c>
-      <c r="D357" t="s">
-        <v>8</v>
+      <c r="C357" t="s">
+        <v>420</v>
+      </c>
+      <c r="D357">
+        <v>1</v>
       </c>
       <c r="E357" t="s">
         <v>8</v>
       </c>
       <c r="F357" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G357" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H357" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I357" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>371</v>
       </c>
-      <c r="C358">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>372</v>
       </c>
       <c r="B359" t="s">
         <v>117</v>
       </c>
-      <c r="C359">
-        <v>1</v>
-      </c>
-      <c r="D359" t="s">
-        <v>7</v>
+      <c r="C359" t="s">
+        <v>418</v>
+      </c>
+      <c r="D359">
+        <v>1</v>
       </c>
       <c r="E359" t="s">
         <v>7</v>
@@ -6496,220 +6820,226 @@
         <v>7</v>
       </c>
       <c r="H359" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="I359" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>413</v>
-      </c>
-      <c r="C360">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+        <v>412</v>
+      </c>
+      <c r="D360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>373</v>
       </c>
-      <c r="C361">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>374</v>
       </c>
-      <c r="C362">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>375</v>
       </c>
-      <c r="C363">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>111</v>
       </c>
       <c r="B364" t="s">
         <v>144</v>
       </c>
-      <c r="C364">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>112</v>
       </c>
       <c r="B365" t="s">
         <v>123</v>
       </c>
-      <c r="C365">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>113</v>
       </c>
       <c r="B366" t="s">
         <v>129</v>
       </c>
-      <c r="C366">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>114</v>
       </c>
       <c r="B367" t="s">
         <v>117</v>
       </c>
-      <c r="C367">
-        <v>1</v>
-      </c>
-      <c r="D367" t="s">
-        <v>7</v>
+      <c r="C367" t="s">
+        <v>418</v>
+      </c>
+      <c r="D367">
+        <v>1</v>
       </c>
       <c r="E367" t="s">
         <v>7</v>
       </c>
       <c r="F367" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G367" t="s">
         <v>23</v>
       </c>
       <c r="H367" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I367" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>376</v>
       </c>
-      <c r="C368">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>377</v>
       </c>
-      <c r="C369">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>378</v>
       </c>
-      <c r="C370">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>379</v>
       </c>
-      <c r="C371">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>380</v>
       </c>
-      <c r="C372">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>381</v>
       </c>
-      <c r="C373">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>115</v>
       </c>
       <c r="B374" t="s">
         <v>120</v>
       </c>
-      <c r="C374">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B375" t="s">
-        <v>417</v>
-      </c>
-      <c r="C375">
-        <f>COUNTIF(C2:C374, 1)</f>
+        <v>416</v>
+      </c>
+      <c r="D375">
+        <f>COUNTIF(D2:D374, 1)</f>
         <v>97</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B376" t="s">
         <v>23</v>
-      </c>
-      <c r="D376">
-        <f>COUNTIF(D2:D374, "k-b")</f>
-        <v>36</v>
       </c>
       <c r="E376">
         <f>COUNTIF(E2:E374, "k-b")</f>
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F376">
         <f>COUNTIF(F2:F374, "k-b")</f>
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="G376">
         <f>COUNTIF(G2:G374, "k-b")</f>
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="H376">
         <f>COUNTIF(H2:H374, "k-b")</f>
+        <v>13</v>
+      </c>
+      <c r="I376">
+        <f>COUNTIF(I2:I374, "k-b")</f>
         <v>31</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B377" t="s">
         <v>8</v>
       </c>
-      <c r="D377">
-        <f>COUNTIF(D2:D374, "b-k")</f>
-        <v>3</v>
-      </c>
       <c r="E377">
         <f>COUNTIF(E2:E374, "b-k")</f>
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F377">
         <f>COUNTIF(F2:F374, "b-k")</f>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G377">
         <f>COUNTIF(G2:G374, "b-k")</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H377">
         <f>COUNTIF(H2:H374, "b-k")</f>
+        <v>7</v>
+      </c>
+      <c r="I377">
+        <f>COUNTIF(I2:I374, "b-k")</f>
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I374">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I374">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
